--- a/Mod/ModProject_Cave/ModProject/ModExcel/DungeonSceneBase.xlsx
+++ b/Mod/ModProject_Cave/ModProject/ModExcel/DungeonSceneBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonSceneBase" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>场景ID</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>10000</t>
+  </si>
+  <si>
+    <t>3A2C20</t>
+  </si>
+  <si>
+    <t>801_802_803</t>
+  </si>
+  <si>
+    <t>huanjing/wafenhuanjing</t>
   </si>
   <si>
     <t>注释</t>
@@ -136,11 +145,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -159,10 +168,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -173,122 +247,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,7 +280,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,13 +333,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,25 +417,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,7 +477,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,133 +501,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,31 +533,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -565,11 +565,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,11 +596,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,17 +620,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,10 +636,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,137 +648,137 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -774,17 +789,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1117,7 +1147,7 @@
     <col min="1" max="3" width="10.2571428571429" customWidth="1"/>
     <col min="4" max="4" width="11.2571428571429" customWidth="1"/>
     <col min="5" max="6" width="20.0952380952381" customWidth="1"/>
-    <col min="7" max="7" width="93.0571428571429" customWidth="1"/>
+    <col min="7" max="7" width="15.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="23.3714285714286" customWidth="1"/>
     <col min="9" max="11" width="15.3904761904762" customWidth="1"/>
     <col min="12" max="12" width="10.2571428571429" customWidth="1"/>
@@ -1260,57 +1290,96 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>426</v>
-      </c>
-      <c r="I4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="L4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" customHeight="1"/>
+    <row r="5" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A5" s="1">
+        <v>42685183</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"dungenonSceneName"&amp;A5</f>
+        <v>dungenonSceneName42685183</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>10000</v>
+      </c>
+      <c r="N5" s="13"/>
+    </row>
     <row r="6" customHeight="1"/>
     <row r="7" customHeight="1"/>
     <row r="8" customHeight="1"/>
-    <row r="9" customHeight="1"/>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="11" customHeight="1"/>
     <row r="12" customHeight="1"/>
     <row r="13" customHeight="1"/>
     <row r="14" customHeight="1"/>
-    <row r="15" customHeight="1"/>
-    <row r="16" customHeight="1" spans="7:7">
-      <c r="G16" s="5"/>
+    <row r="15" customHeight="1" spans="7:7">
+      <c r="G15" s="8"/>
     </row>
-    <row r="17" customHeight="1"/>
-    <row r="18" customHeight="1" spans="7:7">
-      <c r="G18" s="6"/>
+    <row r="16" customHeight="1"/>
+    <row r="17" customHeight="1" spans="7:7">
+      <c r="G17" s="9"/>
     </row>
+    <row r="18" customHeight="1"/>
     <row r="19" customHeight="1"/>
     <row r="20" customHeight="1"/>
     <row r="21" customHeight="1"/>
-    <row r="22" customHeight="1"/>
-    <row r="23" customHeight="1" spans="7:7">
-      <c r="G23" s="7"/>
+    <row r="22" customHeight="1" spans="7:7">
+      <c r="G22" s="10"/>
     </row>
+    <row r="23" customHeight="1"/>
     <row r="24" customHeight="1"/>
     <row r="25" customHeight="1"/>
     <row r="26" customHeight="1"/>
@@ -1349,7 +1418,6 @@
     <row r="59" customHeight="1"/>
     <row r="60" customHeight="1"/>
     <row r="61" customHeight="1"/>
-    <row r="62" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
